--- a/股票.xlsx
+++ b/股票.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A股" sheetId="1" r:id="rId1"/>
     <sheet name="美股" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>行业</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,14 +87,48 @@
   </si>
   <si>
     <t>PER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extraction Oil &amp; Gas Inc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XOG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chaparral Energy </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barnwell Industries</t>
+  </si>
+  <si>
+    <t>BRN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Turquoise Hill Resources</t>
+  </si>
+  <si>
+    <t>TRQ</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,13 +173,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -207,7 +242,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -239,10 +274,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,7 +308,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -450,12 +483,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -463,20 +496,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="24.21875" customWidth="1"/>
-    <col min="10" max="10" width="53.44140625" customWidth="1"/>
+    <col min="2" max="3" width="24.25" customWidth="1"/>
+    <col min="10" max="10" width="53.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -495,11 +528,14 @@
       <c r="G1" t="s">
         <v>12</v>
       </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
       <c r="I1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -516,7 +552,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -533,7 +569,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -559,7 +595,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
@@ -579,7 +615,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -594,6 +630,129 @@
       </c>
       <c r="I6" s="1">
         <v>2.5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>0.93</v>
+      </c>
+      <c r="F7">
+        <v>0.4</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8">
+        <v>1.6</v>
+      </c>
+      <c r="F8">
+        <v>0.3</v>
+      </c>
+      <c r="G8">
+        <v>4.7</v>
+      </c>
+      <c r="H8">
+        <v>19</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9">
+        <v>1.2</v>
+      </c>
+      <c r="F9">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="G9">
+        <v>1.3</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10">
+        <v>0.68</v>
+      </c>
+      <c r="F10">
+        <v>0.5</v>
+      </c>
+      <c r="G10">
+        <v>0.75</v>
+      </c>
+      <c r="H10">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="D11">
+        <v>0.8</v>
+      </c>
+      <c r="F11">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="G11">
+        <v>1.2</v>
+      </c>
+      <c r="H11">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0.42899999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="D12">
+        <v>1.07</v>
+      </c>
+      <c r="F12">
+        <v>0.27</v>
+      </c>
+      <c r="G12">
+        <v>1.7</v>
+      </c>
+      <c r="H12">
+        <v>7.1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>2.96</v>
       </c>
     </row>
   </sheetData>
@@ -604,6 +763,6 @@
     <hyperlink ref="C5" r:id="rId3" display="http://quote.eastmoney.com/unify/r/106.QEP"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
--- a/股票.xlsx
+++ b/股票.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A股" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t>行业</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,14 +121,70 @@
   </si>
   <si>
     <t>TRQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>amtx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tga</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snmp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>llex</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aemetis</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HighPoint Resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransGlobe Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smart Sand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sanchez Midstream Partners</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lilis Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Centennial Resource Development</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -242,7 +298,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -274,9 +330,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -308,6 +365,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -483,12 +541,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -496,20 +554,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="24.25" customWidth="1"/>
-    <col min="10" max="10" width="53.5" customWidth="1"/>
+    <col min="2" max="3" width="24.21875" customWidth="1"/>
+    <col min="10" max="10" width="53.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -535,7 +593,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -552,7 +610,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -569,7 +627,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -595,7 +653,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
@@ -615,7 +673,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -632,7 +690,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -655,7 +713,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -678,7 +736,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -698,7 +756,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -721,7 +779,13 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
       <c r="D11">
         <v>0.8</v>
       </c>
@@ -738,7 +802,13 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>28</v>
+      </c>
       <c r="D12">
         <v>1.07</v>
       </c>
@@ -753,6 +823,121 @@
       </c>
       <c r="I12" s="1">
         <v>2.96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13">
+        <v>1.3</v>
+      </c>
+      <c r="F13">
+        <v>0.45</v>
+      </c>
+      <c r="G13">
+        <v>2</v>
+      </c>
+      <c r="H13">
+        <v>4</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.76</v>
+      </c>
+      <c r="G14">
+        <v>2.83</v>
+      </c>
+      <c r="H14">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15">
+        <v>0.52</v>
+      </c>
+      <c r="F15">
+        <v>0.5</v>
+      </c>
+      <c r="G15">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H15">
+        <v>10</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16">
+        <v>0.2</v>
+      </c>
+      <c r="F16">
+        <v>0.2</v>
+      </c>
+      <c r="G16">
+        <v>0.3</v>
+      </c>
+      <c r="H16">
+        <v>5</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17">
+        <v>3.3</v>
+      </c>
+      <c r="F17">
+        <v>0.6</v>
+      </c>
+      <c r="G17">
+        <v>4.8</v>
+      </c>
+      <c r="H17">
+        <v>19.8</v>
+      </c>
+      <c r="I17" s="1">
+        <v>4.5</v>
       </c>
     </row>
   </sheetData>
@@ -761,8 +946,15 @@
     <hyperlink ref="B4" r:id="rId1" display="http://gb.eastmoney.com/list,usrose.html"/>
     <hyperlink ref="B5" r:id="rId2" display="http://quote.eastmoney.com/unify/r/106.QEP"/>
     <hyperlink ref="C5" r:id="rId3" display="http://quote.eastmoney.com/unify/r/106.QEP"/>
+    <hyperlink ref="B12" r:id="rId4" display="http://quote.eastmoney.com/unify/r/106.HPR"/>
+    <hyperlink ref="B11" r:id="rId5" display="http://quote.eastmoney.com/unify/r/105.AMTX"/>
+    <hyperlink ref="B13" r:id="rId6" display="http://quote.eastmoney.com/unify/r/105.TGA"/>
+    <hyperlink ref="B14" r:id="rId7" display="http://quote.eastmoney.com/unify/r/105.SND"/>
+    <hyperlink ref="B15" r:id="rId8" display="http://quote.eastmoney.com/unify/r/107.SNMP"/>
+    <hyperlink ref="B16" r:id="rId9" display="http://quote.eastmoney.com/unify/r/107.LLEX"/>
+    <hyperlink ref="B17" r:id="rId10" display="http://quote.eastmoney.com/unify/r/105.CDEV"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
 </worksheet>
 </file>
--- a/股票.xlsx
+++ b/股票.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="A股" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>行业</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -177,14 +177,150 @@
   </si>
   <si>
     <t>Centennial Resource Development</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gran Tierra Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>****************</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trnx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taronis Technologies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锡安石油和天然气</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ensv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enservco Corp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>husa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Houston American Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*************</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wll</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Whiting Petroleum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tti</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TETRA Technologies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Superior Drilling Products</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdpi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pds</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precision Drilling</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ne</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诺布尔钻井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡隆石油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TransAtlantic Petroleum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dnr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>丹博里原油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Laredo Petroleum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>axas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lpi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿布拉克萨斯石油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hnrg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hallador Energy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -298,7 +434,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -330,10 +466,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,7 +500,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -541,12 +675,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -554,20 +688,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="24.21875" customWidth="1"/>
-    <col min="10" max="10" width="53.44140625" customWidth="1"/>
+    <col min="2" max="3" width="24.25" customWidth="1"/>
+    <col min="10" max="10" width="53.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -593,7 +729,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -610,7 +746,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -627,7 +763,7 @@
         <v>2.67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -653,7 +789,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
@@ -673,7 +809,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>16</v>
       </c>
@@ -690,7 +826,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>20</v>
       </c>
@@ -713,7 +849,7 @@
         <v>1.33</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>23</v>
       </c>
@@ -736,7 +872,7 @@
         <v>4.33</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" t="s">
         <v>24</v>
       </c>
@@ -756,7 +892,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" t="s">
         <v>26</v>
       </c>
@@ -779,7 +915,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11" t="s">
         <v>35</v>
       </c>
@@ -802,7 +938,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" t="s">
         <v>36</v>
       </c>
@@ -825,7 +961,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" t="s">
         <v>37</v>
       </c>
@@ -848,7 +984,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" t="s">
         <v>38</v>
       </c>
@@ -871,7 +1007,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" t="s">
         <v>39</v>
       </c>
@@ -894,7 +1030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" t="s">
         <v>40</v>
       </c>
@@ -917,7 +1053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10">
       <c r="B17" t="s">
         <v>41</v>
       </c>
@@ -938,6 +1074,380 @@
       </c>
       <c r="I17" s="1">
         <v>4.5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10">
+      <c r="B18" t="s">
+        <v>42</v>
+      </c>
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18">
+        <v>0.96</v>
+      </c>
+      <c r="F18">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G18">
+        <v>1.3</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2.31</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19">
+        <v>0.93</v>
+      </c>
+      <c r="F19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="G19">
+        <v>132</v>
+      </c>
+      <c r="H19">
+        <v>94</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="J19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20">
+        <v>0.23</v>
+      </c>
+      <c r="F20">
+        <v>0.23</v>
+      </c>
+      <c r="G20">
+        <v>0.4</v>
+      </c>
+      <c r="H20">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21">
+        <v>0.19</v>
+      </c>
+      <c r="F21">
+        <v>0.19</v>
+      </c>
+      <c r="G21">
+        <v>0.4</v>
+      </c>
+      <c r="H21">
+        <v>1.86</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22">
+        <v>0.16</v>
+      </c>
+      <c r="F22">
+        <v>0.15</v>
+      </c>
+      <c r="G22">
+        <v>0.18</v>
+      </c>
+      <c r="H22">
+        <v>0.2</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="F23">
+        <v>1.2</v>
+      </c>
+      <c r="G23">
+        <v>7.8</v>
+      </c>
+      <c r="H23">
+        <v>150</v>
+      </c>
+      <c r="I23" s="1">
+        <v>2.83</v>
+      </c>
+      <c r="J23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10">
+      <c r="B24" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24">
+        <v>1.43</v>
+      </c>
+      <c r="F24">
+        <v>0.27</v>
+      </c>
+      <c r="G24">
+        <v>1.92</v>
+      </c>
+      <c r="H24">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="I24" s="1">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10">
+      <c r="B25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" t="s">
+        <v>59</v>
+      </c>
+      <c r="D25">
+        <v>0.65</v>
+      </c>
+      <c r="F25">
+        <v>0.47</v>
+      </c>
+      <c r="G25">
+        <v>0.92</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0.38299999999999995</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10">
+      <c r="B26" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D26">
+        <v>1.48</v>
+      </c>
+      <c r="F26">
+        <v>0.39</v>
+      </c>
+      <c r="G26">
+        <v>2.86</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26" s="1">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10">
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>0.25</v>
+      </c>
+      <c r="G27">
+        <v>1.37</v>
+      </c>
+      <c r="H27">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10">
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>64</v>
+      </c>
+      <c r="D28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>0.6</v>
+      </c>
+      <c r="G28">
+        <v>4.8</v>
+      </c>
+      <c r="H28">
+        <v>7.8</v>
+      </c>
+      <c r="I28" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10">
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29">
+        <v>0.4</v>
+      </c>
+      <c r="F29">
+        <v>0.23</v>
+      </c>
+      <c r="G29">
+        <v>0.48</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0.74</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10">
+      <c r="B30" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>0.3</v>
+      </c>
+      <c r="G30">
+        <v>1.54</v>
+      </c>
+      <c r="H30">
+        <v>8</v>
+      </c>
+      <c r="I30" s="1">
+        <v>2.33</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10">
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31">
+        <v>1.8</v>
+      </c>
+      <c r="F31">
+        <v>0.78</v>
+      </c>
+      <c r="G31">
+        <v>2.8</v>
+      </c>
+      <c r="H31">
+        <v>14</v>
+      </c>
+      <c r="I31" s="1">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10">
+      <c r="B32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C32" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32">
+        <v>0.24</v>
+      </c>
+      <c r="F32">
+        <v>0.24</v>
+      </c>
+      <c r="G32">
+        <v>0.52</v>
+      </c>
+      <c r="H32">
+        <v>3</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D33">
+        <v>0.68</v>
+      </c>
+      <c r="F33">
+        <v>1.96</v>
+      </c>
+      <c r="G33">
+        <v>3.2</v>
+      </c>
+      <c r="H33">
+        <v>8</v>
+      </c>
+      <c r="I33" s="1">
+        <v>1.88</v>
       </c>
     </row>
   </sheetData>
@@ -953,8 +1463,9 @@
     <hyperlink ref="B15" r:id="rId8" display="http://quote.eastmoney.com/unify/r/107.SNMP"/>
     <hyperlink ref="B16" r:id="rId9" display="http://quote.eastmoney.com/unify/r/107.LLEX"/>
     <hyperlink ref="B17" r:id="rId10" display="http://quote.eastmoney.com/unify/r/105.CDEV"/>
+    <hyperlink ref="B25" r:id="rId11" display="http://quote.eastmoney.com/unify/r/107.SDPI"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
--- a/股票.xlsx
+++ b/股票.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="A股" sheetId="1" r:id="rId1"/>
+    <sheet name="A股" sheetId="3" r:id="rId1"/>
     <sheet name="美股" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="146">
   <si>
     <t>行业</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -67,10 +67,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>20年三月份有股东套现</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QEP Resources</t>
   </si>
   <si>
@@ -82,10 +78,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CEVO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PER</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -188,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>****************</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>trnx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,10 +212,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>*************</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>wll</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -313,14 +297,310 @@
   </si>
   <si>
     <t>Hallador Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vtnr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vertex Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gevo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gevo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>低值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉宏股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分众传媒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码编号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002803</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002027</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉夏贝尔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603157</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>德威新材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>300325</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>孚日股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002083</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商赢环球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600146</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京文化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000802</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前处于高点，股价波动大，较频繁，可抄底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>较优质股，地点买入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>603709</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中源家居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纺织业，抄底买入，近期多关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>供销大集</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>000564</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前处于高点，回落后可酌情抄底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>J.Jill </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女装，目前地位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>just</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>je</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cvia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Covia Holdings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Northern Oil and Gas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入，稳妥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baytex Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smart Sand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>egy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦可能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lonestar Resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页岩油开采，关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smlp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summit Midstream Partners LP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源基础服务，关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优质股，可抄底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新股，抄底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20年三月份有股东套现，可抄底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cveo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抄底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**************** 可抄底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>************* 可抄底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄底，短期5倍长期8倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注，短期5倍长期7倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注抄底，短四，长7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄底，短2长7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抄底，资产为负，短2长9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可关注，短3长10，实现大幅回升较困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入，稳妥短5长7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -342,6 +622,13 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Microsoft YaHei"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -365,7 +652,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -373,6 +660,8 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -434,7 +723,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -466,9 +755,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -500,6 +790,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -675,32 +966,289 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="12.21875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="35.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E2">
+        <v>30</v>
+      </c>
+      <c r="F2">
+        <v>44</v>
+      </c>
+      <c r="G2">
+        <v>22</v>
+      </c>
+      <c r="H2">
+        <v>17</v>
+      </c>
+      <c r="I2" s="1">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="B3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="E3">
+        <v>3.2</v>
+      </c>
+      <c r="F3">
+        <v>4.32</v>
+      </c>
+      <c r="G3">
+        <v>4.5</v>
+      </c>
+      <c r="H3">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="B4" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4">
+        <v>6.6</v>
+      </c>
+      <c r="F4">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="G4">
+        <v>8</v>
+      </c>
+      <c r="H4">
+        <v>7.4</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5">
+        <v>7.18</v>
+      </c>
+      <c r="F5">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G5">
+        <v>22.4</v>
+      </c>
+      <c r="H5">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.31</v>
+      </c>
+      <c r="J5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E6">
+        <v>6.9</v>
+      </c>
+      <c r="F6">
+        <v>12</v>
+      </c>
+      <c r="G6">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="H6">
+        <v>19</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7">
+        <v>35</v>
+      </c>
+      <c r="F7">
+        <v>40</v>
+      </c>
+      <c r="G7">
+        <v>20</v>
+      </c>
+      <c r="H7">
+        <v>33</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="B8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E8">
+        <v>2.6</v>
+      </c>
+      <c r="F8">
+        <v>3.5</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>79</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E16">
+        <v>4.82</v>
+      </c>
+      <c r="F16">
+        <v>6.96</v>
+      </c>
+      <c r="G16">
+        <v>6.26</v>
+      </c>
+      <c r="H16">
+        <v>18</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17">
+        <v>3.08</v>
+      </c>
+      <c r="F17">
+        <v>5.8</v>
+      </c>
+      <c r="G17">
+        <v>6</v>
+      </c>
+      <c r="H17">
+        <v>16</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0.88</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="1">
+    <dataValidation type="textLength" operator="greaterThan" allowBlank="1" showErrorMessage="1" sqref="C2">
+      <formula1>1</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B34" sqref="B34"/>
+      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="2" max="3" width="24.25" customWidth="1"/>
-    <col min="10" max="10" width="53.5" customWidth="1"/>
+    <col min="2" max="3" width="24.21875" customWidth="1"/>
+    <col min="10" max="10" width="53.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -723,7 +1271,7 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I1" t="s">
         <v>4</v>
@@ -734,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D2">
         <v>0.9</v>
@@ -742,8 +1290,17 @@
       <c r="F2">
         <v>0.5</v>
       </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>5</v>
+      </c>
       <c r="I2" s="1">
         <v>0.8</v>
+      </c>
+      <c r="J2" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -759,8 +1316,17 @@
       <c r="F3">
         <v>0.6</v>
       </c>
+      <c r="G3">
+        <v>2.37</v>
+      </c>
+      <c r="H3">
+        <v>3</v>
+      </c>
       <c r="I3" s="1">
         <v>2.67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -782,39 +1348,48 @@
       <c r="G4">
         <v>4.5</v>
       </c>
+      <c r="H4">
+        <v>10.35</v>
+      </c>
       <c r="I4" s="1">
         <v>1.53</v>
       </c>
       <c r="J4" t="s">
-        <v>13</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="B5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
         <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
       </c>
       <c r="D5">
         <v>2.7</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="G5">
         <v>4</v>
       </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
       <c r="I5" s="1">
-        <v>4.4000000000000004</v>
+        <v>2.0299999999999998</v>
+      </c>
+      <c r="J5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="D6">
         <v>1.4</v>
@@ -822,16 +1397,25 @@
       <c r="F6">
         <v>0.4</v>
       </c>
+      <c r="G6">
+        <v>1.37</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
       <c r="I6" s="1">
         <v>2.5</v>
       </c>
+      <c r="J6" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="7" spans="1:10">
       <c r="B7" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7">
         <v>0.93</v>
@@ -840,7 +1424,7 @@
         <v>0.4</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="H7">
         <v>23</v>
@@ -848,13 +1432,16 @@
       <c r="I7" s="1">
         <v>1.33</v>
       </c>
+      <c r="J7" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="B8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8">
         <v>1.6</v>
@@ -874,10 +1461,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="B9" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D9">
         <v>1.2</v>
@@ -894,10 +1481,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="B10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D10">
         <v>0.68</v>
@@ -917,10 +1504,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="B11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D11">
         <v>0.8</v>
@@ -940,10 +1527,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="B12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D12">
         <v>1.07</v>
@@ -960,13 +1547,16 @@
       <c r="I12" s="1">
         <v>2.96</v>
       </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="13" spans="1:10">
       <c r="B13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D13">
         <v>1.3</v>
@@ -986,10 +1576,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="B14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D14">
         <v>2</v>
@@ -1009,10 +1599,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="B15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D15">
         <v>0.52</v>
@@ -1032,10 +1622,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="B16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16">
         <v>0.2</v>
@@ -1055,16 +1645,16 @@
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C17" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D17">
         <v>3.3</v>
       </c>
       <c r="F17">
-        <v>0.6</v>
+        <v>0.96</v>
       </c>
       <c r="G17">
         <v>4.8</v>
@@ -1073,15 +1663,18 @@
         <v>19.8</v>
       </c>
       <c r="I17" s="1">
-        <v>4.5</v>
+        <v>2.44</v>
+      </c>
+      <c r="J17" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D18">
         <v>0.96</v>
@@ -1098,13 +1691,16 @@
       <c r="I18" s="1">
         <v>2.31</v>
       </c>
+      <c r="J18" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="19" spans="2:10">
       <c r="B19" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D19">
         <v>0.93</v>
@@ -1122,15 +1718,15 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="J19" t="s">
-        <v>44</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D20">
         <v>0.23</v>
@@ -1150,10 +1746,10 @@
     </row>
     <row r="21" spans="2:10">
       <c r="B21" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D21">
         <v>0.19</v>
@@ -1173,10 +1769,10 @@
     </row>
     <row r="22" spans="2:10">
       <c r="B22" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D22">
         <v>0.16</v>
@@ -1196,10 +1792,10 @@
     </row>
     <row r="23" spans="2:10">
       <c r="B23" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C23" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D23">
         <v>4.5999999999999996</v>
@@ -1217,15 +1813,15 @@
         <v>2.83</v>
       </c>
       <c r="J23" t="s">
-        <v>53</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D24">
         <v>1.43</v>
@@ -1245,10 +1841,10 @@
     </row>
     <row r="25" spans="2:10">
       <c r="B25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D25">
         <v>0.65</v>
@@ -1268,10 +1864,10 @@
     </row>
     <row r="26" spans="2:10">
       <c r="B26" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D26">
         <v>1.48</v>
@@ -1288,13 +1884,16 @@
       <c r="I26" s="1">
         <v>2.79</v>
       </c>
+      <c r="J26" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="C27" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -1311,13 +1910,16 @@
       <c r="I27" s="1">
         <v>3</v>
       </c>
+      <c r="J27" t="s">
+        <v>139</v>
+      </c>
     </row>
     <row r="28" spans="2:10">
       <c r="B28" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C28" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D28">
         <v>3</v>
@@ -1334,13 +1936,16 @@
       <c r="I28" s="1">
         <v>4</v>
       </c>
+      <c r="J28" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="29" spans="2:10">
       <c r="B29" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C29" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D29">
         <v>0.4</v>
@@ -1360,10 +1965,10 @@
     </row>
     <row r="30" spans="2:10">
       <c r="B30" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D30">
         <v>1</v>
@@ -1380,13 +1985,16 @@
       <c r="I30" s="1">
         <v>2.33</v>
       </c>
+      <c r="J30" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C31" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D31">
         <v>1.8</v>
@@ -1406,10 +2014,10 @@
     </row>
     <row r="32" spans="2:10">
       <c r="B32" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D32">
         <v>0.24</v>
@@ -1427,12 +2035,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:9">
+    <row r="33" spans="2:10">
       <c r="B33" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C33" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D33">
         <v>0.68</v>
@@ -1448,6 +2056,338 @@
       </c>
       <c r="I33" s="1">
         <v>1.88</v>
+      </c>
+      <c r="J33" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10">
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+      <c r="D34">
+        <v>1.39</v>
+      </c>
+      <c r="F34">
+        <v>0.59</v>
+      </c>
+      <c r="G34">
+        <v>1.8</v>
+      </c>
+      <c r="H34">
+        <v>2.75</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10">
+      <c r="B35" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" t="s">
+        <v>75</v>
+      </c>
+      <c r="D35">
+        <v>2.14</v>
+      </c>
+      <c r="F35">
+        <v>1.24</v>
+      </c>
+      <c r="G35">
+        <v>3.53</v>
+      </c>
+      <c r="H35">
+        <v>80</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0.73</v>
+      </c>
+    </row>
+    <row r="36" spans="2:10">
+      <c r="B36" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36" t="s">
+        <v>105</v>
+      </c>
+      <c r="D36">
+        <v>1.5</v>
+      </c>
+      <c r="F36">
+        <v>0.45</v>
+      </c>
+      <c r="G36">
+        <v>1.8</v>
+      </c>
+      <c r="H36">
+        <v>4</v>
+      </c>
+      <c r="I36" s="1">
+        <v>2</v>
+      </c>
+      <c r="J36" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10">
+      <c r="B37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C37" t="s">
+        <v>106</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>0.6</v>
+      </c>
+      <c r="G37">
+        <v>2.7</v>
+      </c>
+      <c r="H37">
+        <v>20</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="J37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10">
+      <c r="B38" t="s">
+        <v>109</v>
+      </c>
+      <c r="C38" t="s">
+        <v>108</v>
+      </c>
+      <c r="D38">
+        <v>1.65</v>
+      </c>
+      <c r="F38">
+        <v>0.79</v>
+      </c>
+      <c r="G38">
+        <v>2.35</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
+      </c>
+      <c r="I38" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="2:10">
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>0.3</v>
+      </c>
+      <c r="G39">
+        <v>1.5</v>
+      </c>
+      <c r="H39">
+        <v>4</v>
+      </c>
+      <c r="I39" s="1">
+        <v>2.33</v>
+      </c>
+      <c r="J39" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10">
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40">
+        <v>0.95</v>
+      </c>
+      <c r="F40">
+        <v>0.31</v>
+      </c>
+      <c r="G40">
+        <v>1.3</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40" s="1">
+        <v>2.06</v>
+      </c>
+      <c r="J40" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" t="s">
+        <v>116</v>
+      </c>
+      <c r="C41" t="s">
+        <v>115</v>
+      </c>
+      <c r="D41">
+        <v>2.02</v>
+      </c>
+      <c r="F41">
+        <v>0.86</v>
+      </c>
+      <c r="G41">
+        <v>2.76</v>
+      </c>
+      <c r="H41">
+        <v>14</v>
+      </c>
+      <c r="I41" s="1">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="42" spans="2:10">
+      <c r="B42" t="s">
+        <v>119</v>
+      </c>
+      <c r="C42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="F42">
+        <v>0.86</v>
+      </c>
+      <c r="G42">
+        <v>2.5</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
+      </c>
+      <c r="I42" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="J42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>0.82</v>
+      </c>
+      <c r="G43">
+        <v>2.74</v>
+      </c>
+      <c r="H43">
+        <v>11</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1.44</v>
+      </c>
+      <c r="J43" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44">
+        <v>1.38</v>
+      </c>
+      <c r="F44">
+        <v>0.65</v>
+      </c>
+      <c r="G44">
+        <v>2.66</v>
+      </c>
+      <c r="H44">
+        <v>10</v>
+      </c>
+      <c r="I44" s="1">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="J44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" t="s">
+        <v>126</v>
+      </c>
+      <c r="C45" t="s">
+        <v>125</v>
+      </c>
+      <c r="D45">
+        <v>2.6</v>
+      </c>
+      <c r="F45">
+        <v>0.94</v>
+      </c>
+      <c r="G45">
+        <v>3.4</v>
+      </c>
+      <c r="H45">
+        <v>23</v>
+      </c>
+      <c r="I45" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="J45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" ht="19.2">
+      <c r="B46" s="6"/>
+    </row>
+    <row r="48" spans="2:10">
+      <c r="B48" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" t="s">
+        <v>101</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>0.43</v>
+      </c>
+      <c r="G48">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="H48">
+        <v>13</v>
+      </c>
+      <c r="I48" s="1">
+        <v>1.33</v>
+      </c>
+      <c r="J48" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>

--- a/股票.xlsx
+++ b/股票.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="A股" sheetId="3" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="161">
   <si>
     <t>行业</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,42 +524,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>优质股，可抄底</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新股，抄底</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20年三月份有股东套现，可抄底</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄底</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>cveo</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>可抄底</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄底</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄底</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>**************** 可抄底</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>************* 可抄底</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -593,6 +561,98 @@
   </si>
   <si>
     <t>买入，稳妥短5长7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄底，短4长10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄底，短3长8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**************** 可抄底，短5长10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄底，短4长10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抄底，短3长20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抄底，短5长11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抄底，短3长5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄底，短5长10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20年三月份有股东套现，可抄底，短3长14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新股，抄底，短5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优质股，可抄底，短2长4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600622</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大嘉宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002662</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京威股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002660</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茂硕电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优质股，业绩不错，关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002363</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隆基机械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优质股，股价较平稳，业绩不错，关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002856</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美芝股份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -969,8 +1029,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1059,7 +1119,7 @@
         <v>88</v>
       </c>
       <c r="E4">
-        <v>6.6</v>
+        <v>5.37</v>
       </c>
       <c r="F4">
         <v>9.4600000000000009</v>
@@ -1071,7 +1131,7 @@
         <v>7.4</v>
       </c>
       <c r="I4" s="1">
-        <v>0.43</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1082,7 +1142,7 @@
         <v>90</v>
       </c>
       <c r="E5">
-        <v>7.18</v>
+        <v>5.81</v>
       </c>
       <c r="F5">
         <v>16.600000000000001</v>
@@ -1094,7 +1154,7 @@
         <v>10</v>
       </c>
       <c r="I5" s="1">
-        <v>1.31</v>
+        <v>1.81</v>
       </c>
       <c r="J5" t="s">
         <v>97</v>
@@ -1108,7 +1168,7 @@
         <v>92</v>
       </c>
       <c r="E6">
-        <v>6.9</v>
+        <v>6</v>
       </c>
       <c r="F6">
         <v>12</v>
@@ -1120,7 +1180,7 @@
         <v>19</v>
       </c>
       <c r="I6" s="1">
-        <v>0.74</v>
+        <v>1</v>
       </c>
       <c r="J6" t="s">
         <v>94</v>
@@ -1137,7 +1197,7 @@
         <v>95</v>
       </c>
       <c r="E7">
-        <v>35</v>
+        <v>28.8</v>
       </c>
       <c r="F7">
         <v>40</v>
@@ -1149,7 +1209,7 @@
         <v>33</v>
       </c>
       <c r="I7" s="1">
-        <v>0.14000000000000001</v>
+        <v>0.39</v>
       </c>
       <c r="J7" t="s">
         <v>93</v>
@@ -1176,6 +1236,121 @@
       </c>
       <c r="J8" t="s">
         <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E9">
+        <v>4.5</v>
+      </c>
+      <c r="F9">
+        <v>5</v>
+      </c>
+      <c r="G9">
+        <v>7.8</v>
+      </c>
+      <c r="H9">
+        <v>6</v>
+      </c>
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="B10" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E10">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="F10">
+        <v>3.72</v>
+      </c>
+      <c r="G10">
+        <v>6.7</v>
+      </c>
+      <c r="H10">
+        <v>6</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="B11" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <v>11.6</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+      <c r="H11">
+        <v>15</v>
+      </c>
+      <c r="J11" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="E12">
+        <v>7.1</v>
+      </c>
+      <c r="F12">
+        <v>10</v>
+      </c>
+      <c r="G12">
+        <v>5</v>
+      </c>
+      <c r="H12">
+        <v>27</v>
+      </c>
+      <c r="J12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="B13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E13">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="F13">
+        <v>19</v>
+      </c>
+      <c r="G13">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>32</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1239,10 +1414,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J39" sqref="J39"/>
+      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1288,7 +1463,7 @@
         <v>0.9</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.45</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -1297,10 +1472,10 @@
         <v>5</v>
       </c>
       <c r="I2" s="1">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>128</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1326,7 +1501,7 @@
         <v>2.67</v>
       </c>
       <c r="J3" t="s">
-        <v>129</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1355,7 +1530,7 @@
         <v>1.53</v>
       </c>
       <c r="J4" t="s">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1369,7 +1544,7 @@
         <v>2.7</v>
       </c>
       <c r="F5">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="G5">
         <v>4</v>
@@ -1378,10 +1553,10 @@
         <v>18</v>
       </c>
       <c r="I5" s="1">
-        <v>2.0299999999999998</v>
+        <v>2.38</v>
       </c>
       <c r="J5" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1389,7 +1564,7 @@
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D6">
         <v>1.4</v>
@@ -1407,7 +1582,7 @@
         <v>2.5</v>
       </c>
       <c r="J6" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1421,7 +1596,7 @@
         <v>0.93</v>
       </c>
       <c r="F7">
-        <v>0.4</v>
+        <v>0.45</v>
       </c>
       <c r="G7">
         <v>2.4</v>
@@ -1430,10 +1605,10 @@
         <v>23</v>
       </c>
       <c r="I7" s="1">
-        <v>1.33</v>
+        <v>1.06</v>
       </c>
       <c r="J7" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1458,6 +1633,9 @@
       <c r="I8" s="1">
         <v>4.33</v>
       </c>
+      <c r="J8" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="9" spans="1:10">
       <c r="B9" t="s">
@@ -1536,7 +1714,7 @@
         <v>1.07</v>
       </c>
       <c r="F12">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="G12">
         <v>1.7</v>
@@ -1545,10 +1723,10 @@
         <v>7.1</v>
       </c>
       <c r="I12" s="1">
-        <v>2.96</v>
+        <v>3.12</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1654,7 +1832,7 @@
         <v>3.3</v>
       </c>
       <c r="F17">
-        <v>0.96</v>
+        <v>0.73</v>
       </c>
       <c r="G17">
         <v>4.8</v>
@@ -1663,10 +1841,10 @@
         <v>19.8</v>
       </c>
       <c r="I17" s="1">
-        <v>2.44</v>
+        <v>3.52</v>
       </c>
       <c r="J17" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" spans="2:10">
@@ -1692,7 +1870,7 @@
         <v>2.31</v>
       </c>
       <c r="J18" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="19" spans="2:10">
@@ -1706,7 +1884,7 @@
         <v>0.93</v>
       </c>
       <c r="F19">
-        <v>0.28000000000000003</v>
+        <v>0.21</v>
       </c>
       <c r="G19">
         <v>132</v>
@@ -1718,7 +1896,7 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="J19" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="2:10">
@@ -1813,7 +1991,7 @@
         <v>2.83</v>
       </c>
       <c r="J23" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="2:10">
@@ -1885,7 +2063,7 @@
         <v>2.79</v>
       </c>
       <c r="J26" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="2:10">
@@ -1911,7 +2089,7 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
     </row>
     <row r="28" spans="2:10">
@@ -1937,7 +2115,7 @@
         <v>4</v>
       </c>
       <c r="J28" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="2:10">
@@ -1986,7 +2164,7 @@
         <v>2.33</v>
       </c>
       <c r="J30" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" spans="2:10">
@@ -2058,7 +2236,7 @@
         <v>1.88</v>
       </c>
       <c r="J33" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="2:10">
@@ -2130,7 +2308,7 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="37" spans="2:10">
@@ -2156,7 +2334,7 @@
         <v>2.33</v>
       </c>
       <c r="J37" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="38" spans="2:10">
@@ -2205,7 +2383,7 @@
         <v>2.33</v>
       </c>
       <c r="J39" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" spans="2:10">

--- a/股票.xlsx
+++ b/股票.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="A股" sheetId="3" r:id="rId1"/>
     <sheet name="美股" sheetId="2" r:id="rId2"/>
+    <sheet name="抄底" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="191">
   <si>
     <t>行业</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -424,10 +425,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>女装，目前地位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>just</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -456,203 +453,327 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>gte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bte</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Baytex Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Smart Sand</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>egy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>瓦可能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rei</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ring Energy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lonestar Resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>页岩油开采，关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>smlp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Summit Midstream Partners LP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cveo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>************* 可抄底</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄底，短期5倍长期8倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注，短期5倍长期7倍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注抄底，短四，长7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄底，短2长7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抄底，资产为负，短2长9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可关注，短3长10，实现大幅回升较困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入，稳妥短5长7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄底，短4长10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄底，短3长8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>**************** 可抄底，短5长10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄底，短4长10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抄底，短3长20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抄底，短5长11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可抄底，短3长5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抄底，短5长10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20年三月份有股东套现，可抄底，短3长14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新股，抄底，短5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优质股，可抄底，短2长4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>600622</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光大嘉宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002662</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京威股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002660</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>茂硕电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优质股，业绩不错，关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002363</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>隆基机械</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优质股，股价较平稳，业绩不错，关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002856</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美芝股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前处于高点，回落后可酌情抄底，每年四月份左右处于高点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女装，目前地位，短2长10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002700</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st浩源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注，公司股较优质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002157</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正邦科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注，公司股较优质，生猪相关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002466</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天齐锂业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注，大企业，锂矿，需求旺盛新能源汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>peix</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注，乙醇汽油生产商</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>太平洋乙醇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>st兆新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>002256</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化工，太阳能，新能源汽车，盈利较为稳定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>chap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hpr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdev</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资产为负</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入 短四长8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>买入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>gte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bte</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Baytex Energy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>snd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Smart Sand</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>egy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买入</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瓦可能源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>rei</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ring Energy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Lonestar Resources</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>页岩油开采，关注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>smlp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Summit Midstream Partners LP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能源基础服务，关注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cveo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>************* 可抄底</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄底，短期5倍长期8倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注，短期5倍长期7倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关注抄底，短四，长7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄底，短2长7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可抄底，资产为负，短2长9</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可关注，短3长10，实现大幅回升较困难</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>买入，稳妥短5长7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄底，短4长10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄底，短3长8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>**************** 可抄底，短5长10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄底，短4长10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可抄底，短3长20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可抄底，短5长11</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可抄底，短3长5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抄底，短5长10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20年三月份有股东套现，可抄底，短3长14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新股，抄底，短5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优质股，可抄底，短2长4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>600622</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光大嘉宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002662</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>京威股份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002660</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>茂硕电源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优质股，业绩不错，关注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002363</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>隆基机械</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>优质股，股价较平稳，业绩不错，关注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>002856</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>美芝股份</t>
+    <t>能源基础服务，关注，短3长10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关注价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高位，优质</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,7 +781,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,13 +803,6 @@
       <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF000000"/>
-      <name val="Microsoft YaHei"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -712,7 +826,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -721,7 +835,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1027,19 +1140,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="12.21875" style="5" customWidth="1"/>
     <col min="10" max="10" width="35.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1065,7 +1178,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>78</v>
       </c>
@@ -1088,7 +1201,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>85</v>
       </c>
@@ -1111,7 +1224,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -1134,7 +1247,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>89</v>
       </c>
@@ -1142,7 +1255,7 @@
         <v>90</v>
       </c>
       <c r="E5">
-        <v>5.81</v>
+        <v>5.55</v>
       </c>
       <c r="F5">
         <v>16.600000000000001</v>
@@ -1154,13 +1267,13 @@
         <v>10</v>
       </c>
       <c r="I5" s="1">
-        <v>1.81</v>
+        <v>1.99</v>
       </c>
       <c r="J5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>91</v>
       </c>
@@ -1186,7 +1299,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -1215,7 +1328,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>98</v>
       </c>
@@ -1238,12 +1351,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E9">
         <v>4.5</v>
@@ -1261,12 +1374,12 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E10">
         <v>4.0999999999999996</v>
@@ -1281,15 +1394,15 @@
         <v>6</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E11">
         <v>10</v>
@@ -1304,15 +1417,15 @@
         <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E12">
         <v>7.1</v>
@@ -1327,15 +1440,15 @@
         <v>27</v>
       </c>
       <c r="J12" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="E13">
         <v>17.399999999999999</v>
@@ -1353,50 +1466,151 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14">
+        <v>3.9</v>
+      </c>
+      <c r="F14">
+        <v>6.6</v>
+      </c>
+      <c r="G14">
+        <v>9</v>
+      </c>
+      <c r="H14">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.69</v>
+      </c>
+      <c r="J14" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F15">
+        <v>38</v>
+      </c>
+      <c r="G15">
+        <v>39</v>
+      </c>
+      <c r="H15">
+        <v>62</v>
+      </c>
+      <c r="I15" s="1">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="J15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>79</v>
+        <v>163</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>82</v>
+        <v>162</v>
       </c>
       <c r="E16">
-        <v>4.82</v>
+        <v>17.2</v>
       </c>
       <c r="F16">
-        <v>6.96</v>
+        <v>22.2</v>
       </c>
       <c r="G16">
-        <v>6.26</v>
+        <v>24</v>
       </c>
       <c r="H16">
         <v>18</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E18">
+        <v>4.82</v>
+      </c>
+      <c r="F18">
+        <v>6.96</v>
+      </c>
+      <c r="G18">
+        <v>6.26</v>
+      </c>
+      <c r="H18">
+        <v>18</v>
+      </c>
+      <c r="I18" s="1">
         <v>0.44</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" t="s">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>83</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C19" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="E17">
+      <c r="E19">
         <v>3.08</v>
       </c>
-      <c r="F17">
+      <c r="F19">
         <v>5.8</v>
       </c>
-      <c r="G17">
+      <c r="G19">
         <v>6</v>
       </c>
-      <c r="H17">
+      <c r="H19">
         <v>16</v>
       </c>
-      <c r="I17" s="1">
+      <c r="I19" s="1">
         <v>0.88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B24" t="s">
+        <v>172</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="G24">
+        <v>4.5</v>
+      </c>
+      <c r="H24">
+        <v>3</v>
+      </c>
+      <c r="J24" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -1407,6 +1621,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1415,18 +1630,18 @@
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J59" sqref="J59"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="3" width="24.21875" customWidth="1"/>
     <col min="10" max="10" width="53.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1452,7 +1667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -1475,10 +1690,10 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1501,10 +1716,10 @@
         <v>2.67</v>
       </c>
       <c r="J3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1530,10 +1745,10 @@
         <v>1.53</v>
       </c>
       <c r="J4" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1556,15 +1771,15 @@
         <v>2.38</v>
       </c>
       <c r="J5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D6">
         <v>1.4</v>
@@ -1582,10 +1797,10 @@
         <v>2.5</v>
       </c>
       <c r="J6" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -1608,10 +1823,10 @@
         <v>1.06</v>
       </c>
       <c r="J7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -1622,7 +1837,7 @@
         <v>1.6</v>
       </c>
       <c r="F8">
-        <v>0.3</v>
+        <v>0.39</v>
       </c>
       <c r="G8">
         <v>4.7</v>
@@ -1631,13 +1846,13 @@
         <v>19</v>
       </c>
       <c r="I8" s="1">
-        <v>4.33</v>
+        <v>3.1</v>
       </c>
       <c r="J8" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1657,7 +1872,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -1680,7 +1895,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>33</v>
       </c>
@@ -1703,7 +1918,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>34</v>
       </c>
@@ -1726,10 +1941,10 @@
         <v>3.12</v>
       </c>
       <c r="J12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -1752,7 +1967,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>36</v>
       </c>
@@ -1775,7 +1990,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -1798,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -1821,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>39</v>
       </c>
@@ -1844,10 +2059,10 @@
         <v>3.52</v>
       </c>
       <c r="J17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -1870,10 +2085,10 @@
         <v>2.31</v>
       </c>
       <c r="J18" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>43</v>
       </c>
@@ -1896,10 +2111,10 @@
         <v>2.3199999999999998</v>
       </c>
       <c r="J19" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>45</v>
       </c>
@@ -1922,7 +2137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>47</v>
       </c>
@@ -1945,7 +2160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>49</v>
       </c>
@@ -1968,7 +2183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>51</v>
       </c>
@@ -1991,10 +2206,10 @@
         <v>2.83</v>
       </c>
       <c r="J23" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="24" spans="2:10">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -2017,7 +2232,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -2040,7 +2255,7 @@
         <v>0.38299999999999995</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>57</v>
       </c>
@@ -2063,10 +2278,10 @@
         <v>2.79</v>
       </c>
       <c r="J26" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="27" spans="2:10">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>59</v>
       </c>
@@ -2089,10 +2304,10 @@
         <v>3</v>
       </c>
       <c r="J27" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="28" spans="2:10">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>61</v>
       </c>
@@ -2115,10 +2330,10 @@
         <v>4</v>
       </c>
       <c r="J28" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="29" spans="2:10">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>63</v>
       </c>
@@ -2141,7 +2356,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>65</v>
       </c>
@@ -2164,10 +2379,10 @@
         <v>2.33</v>
       </c>
       <c r="J30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="31" spans="2:10">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>66</v>
       </c>
@@ -2190,7 +2405,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>69</v>
       </c>
@@ -2213,7 +2428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>71</v>
       </c>
@@ -2236,10 +2451,10 @@
         <v>1.88</v>
       </c>
       <c r="J33" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="2:10">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>73</v>
       </c>
@@ -2262,7 +2477,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>74</v>
       </c>
@@ -2285,12 +2500,12 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
+        <v>103</v>
+      </c>
+      <c r="C36" t="s">
         <v>104</v>
-      </c>
-      <c r="C36" t="s">
-        <v>105</v>
       </c>
       <c r="D36">
         <v>1.5</v>
@@ -2308,15 +2523,15 @@
         <v>2</v>
       </c>
       <c r="J36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="2:10">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D37">
         <v>2</v>
@@ -2334,15 +2549,15 @@
         <v>2.33</v>
       </c>
       <c r="J37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="38" spans="2:10">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D38">
         <v>1.65</v>
@@ -2360,12 +2575,12 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -2383,15 +2598,15 @@
         <v>2.33</v>
       </c>
       <c r="J39" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="40" spans="2:10">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>40</v>
       </c>
       <c r="C40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D40">
         <v>0.95</v>
@@ -2409,15 +2624,15 @@
         <v>2.06</v>
       </c>
       <c r="J40" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="41" spans="2:10">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C41" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D41">
         <v>2.02</v>
@@ -2435,12 +2650,12 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D42">
         <v>2.2400000000000002</v>
@@ -2457,16 +2672,13 @@
       <c r="I42" s="1">
         <v>1.6</v>
       </c>
-      <c r="J42" t="s">
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="43" spans="2:10">
-      <c r="B43" t="s">
-        <v>121</v>
-      </c>
       <c r="C43" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D43">
         <v>2</v>
@@ -2484,15 +2696,15 @@
         <v>1.44</v>
       </c>
       <c r="J43" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="44" spans="2:10">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C44" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D44">
         <v>1.38</v>
@@ -2510,15 +2722,15 @@
         <v>1.1200000000000001</v>
       </c>
       <c r="J44" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="45" spans="2:10">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D45">
         <v>2.6</v>
@@ -2536,13 +2748,36 @@
         <v>1.77</v>
       </c>
       <c r="J45" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="2:10" ht="19.2">
-      <c r="B46" s="6"/>
-    </row>
-    <row r="48" spans="2:10">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" t="s">
+        <v>168</v>
+      </c>
+      <c r="D46">
+        <v>0.4</v>
+      </c>
+      <c r="F46">
+        <v>0.6</v>
+      </c>
+      <c r="G46">
+        <v>1.3</v>
+      </c>
+      <c r="H46">
+        <v>10</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="J46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>102</v>
       </c>
@@ -2565,7 +2800,7 @@
         <v>1.33</v>
       </c>
       <c r="J48" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -2586,4 +2821,175 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="C2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B4">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>181</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>104</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B13" t="s">
+        <v>184</v>
+      </c>
+      <c r="C13" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/股票.xlsx
+++ b/股票.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="A股" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="192">
   <si>
     <t>行业</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -774,14 +774,18 @@
   </si>
   <si>
     <t>高位，优质</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -896,7 +900,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -928,10 +932,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -963,7 +966,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1139,20 +1141,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="3" max="3" width="12.21875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="35.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="5" customWidth="1"/>
+    <col min="10" max="10" width="35.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1178,7 +1180,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>78</v>
       </c>
@@ -1201,7 +1203,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>85</v>
       </c>
@@ -1224,7 +1226,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -1247,7 +1249,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" t="s">
         <v>89</v>
       </c>
@@ -1273,7 +1275,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>91</v>
       </c>
@@ -1299,7 +1301,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -1328,7 +1330,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>98</v>
       </c>
@@ -1351,7 +1353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" t="s">
         <v>146</v>
       </c>
@@ -1374,7 +1376,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" t="s">
         <v>148</v>
       </c>
@@ -1397,7 +1399,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11" t="s">
         <v>150</v>
       </c>
@@ -1420,7 +1422,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" t="s">
         <v>153</v>
       </c>
@@ -1443,7 +1445,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" t="s">
         <v>156</v>
       </c>
@@ -1466,7 +1468,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" t="s">
         <v>160</v>
       </c>
@@ -1492,7 +1494,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" t="s">
         <v>166</v>
       </c>
@@ -1518,7 +1520,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" t="s">
         <v>163</v>
       </c>
@@ -1541,7 +1543,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="B18" t="s">
         <v>79</v>
       </c>
@@ -1564,7 +1566,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="B19" t="s">
         <v>83</v>
       </c>
@@ -1587,7 +1589,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
         <v>171</v>
       </c>
@@ -1626,22 +1628,22 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="3" width="24.21875" customWidth="1"/>
-    <col min="10" max="10" width="53.44140625" customWidth="1"/>
+    <col min="2" max="3" width="24.25" customWidth="1"/>
+    <col min="10" max="10" width="53.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -1693,7 +1695,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1719,7 +1721,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1748,7 +1750,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1774,7 +1776,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -1800,7 +1802,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -1826,7 +1828,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -1852,7 +1854,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1872,7 +1874,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -1895,7 +1897,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="B11" t="s">
         <v>33</v>
       </c>
@@ -1918,7 +1920,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="B12" t="s">
         <v>34</v>
       </c>
@@ -1944,7 +1946,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -1967,7 +1969,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="B14" t="s">
         <v>36</v>
       </c>
@@ -1990,7 +1992,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -2013,7 +2015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -2036,7 +2038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10">
       <c r="B17" t="s">
         <v>39</v>
       </c>
@@ -2062,7 +2064,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -2088,7 +2090,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10">
       <c r="B19" t="s">
         <v>43</v>
       </c>
@@ -2114,7 +2116,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10">
       <c r="B20" t="s">
         <v>45</v>
       </c>
@@ -2137,7 +2139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10">
       <c r="B21" t="s">
         <v>47</v>
       </c>
@@ -2160,7 +2162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10">
       <c r="B22" t="s">
         <v>49</v>
       </c>
@@ -2183,7 +2185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10">
       <c r="B23" t="s">
         <v>51</v>
       </c>
@@ -2209,7 +2211,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -2232,7 +2234,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:10">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -2255,7 +2257,7 @@
         <v>0.38299999999999995</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10">
       <c r="B26" t="s">
         <v>57</v>
       </c>
@@ -2281,7 +2283,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10">
       <c r="B27" t="s">
         <v>59</v>
       </c>
@@ -2307,7 +2309,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10">
       <c r="B28" t="s">
         <v>61</v>
       </c>
@@ -2333,7 +2335,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10">
       <c r="B29" t="s">
         <v>63</v>
       </c>
@@ -2356,7 +2358,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10">
       <c r="B30" t="s">
         <v>65</v>
       </c>
@@ -2382,7 +2384,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10">
       <c r="B31" t="s">
         <v>66</v>
       </c>
@@ -2405,7 +2407,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10">
       <c r="B32" t="s">
         <v>69</v>
       </c>
@@ -2428,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10">
       <c r="B33" t="s">
         <v>71</v>
       </c>
@@ -2454,7 +2456,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10">
       <c r="B34" t="s">
         <v>73</v>
       </c>
@@ -2477,7 +2479,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10">
       <c r="B35" t="s">
         <v>74</v>
       </c>
@@ -2500,7 +2502,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10">
       <c r="B36" t="s">
         <v>103</v>
       </c>
@@ -2526,7 +2528,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10">
       <c r="B37" t="s">
         <v>106</v>
       </c>
@@ -2552,7 +2554,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:10">
       <c r="B38" t="s">
         <v>108</v>
       </c>
@@ -2575,7 +2577,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:10">
       <c r="B39" t="s">
         <v>112</v>
       </c>
@@ -2601,7 +2603,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:10">
       <c r="B40" t="s">
         <v>40</v>
       </c>
@@ -2627,7 +2629,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:10">
       <c r="B41" t="s">
         <v>114</v>
       </c>
@@ -2650,7 +2652,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:10">
       <c r="B42" t="s">
         <v>116</v>
       </c>
@@ -2673,7 +2675,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:10">
       <c r="B43" t="s">
         <v>118</v>
       </c>
@@ -2699,7 +2701,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:10">
       <c r="B44" t="s">
         <v>119</v>
       </c>
@@ -2725,7 +2727,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:10">
       <c r="B45" t="s">
         <v>123</v>
       </c>
@@ -2751,7 +2753,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:10">
       <c r="B46" t="s">
         <v>170</v>
       </c>
@@ -2777,7 +2779,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:10">
       <c r="B48" t="s">
         <v>102</v>
       </c>
@@ -2824,16 +2826,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>175</v>
       </c>
@@ -2844,7 +2846,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -2854,8 +2856,11 @@
       <c r="C2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -2865,8 +2870,11 @@
       <c r="C3" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -2877,7 +2885,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>179</v>
       </c>
@@ -2887,8 +2895,11 @@
       <c r="C5" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>180</v>
       </c>
@@ -2899,7 +2910,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>181</v>
       </c>
@@ -2909,8 +2920,11 @@
       <c r="C7" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -2921,7 +2935,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -2932,7 +2946,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -2943,7 +2957,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -2954,7 +2968,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2965,7 +2979,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -2975,8 +2989,11 @@
       <c r="C13" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>122</v>
       </c>

--- a/股票.xlsx
+++ b/股票.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="A股" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="198">
   <si>
     <t>行业</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -778,14 +778,38 @@
   </si>
   <si>
     <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能源替代公司，关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>*</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dnr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -900,7 +924,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -932,9 +956,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -966,6 +991,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1141,20 +1167,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="12.25" style="5" customWidth="1"/>
-    <col min="10" max="10" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="12.21875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="35.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1180,7 +1206,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>78</v>
       </c>
@@ -1203,7 +1229,7 @@
         <v>0.47</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>85</v>
       </c>
@@ -1226,7 +1252,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>87</v>
       </c>
@@ -1249,7 +1275,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>89</v>
       </c>
@@ -1275,7 +1301,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>91</v>
       </c>
@@ -1301,7 +1327,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>76</v>
       </c>
@@ -1330,7 +1356,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>98</v>
       </c>
@@ -1353,7 +1379,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>146</v>
       </c>
@@ -1376,7 +1402,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>148</v>
       </c>
@@ -1399,7 +1425,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>150</v>
       </c>
@@ -1422,7 +1448,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>153</v>
       </c>
@@ -1445,7 +1471,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>156</v>
       </c>
@@ -1468,7 +1494,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>160</v>
       </c>
@@ -1494,7 +1520,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>166</v>
       </c>
@@ -1520,7 +1546,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>163</v>
       </c>
@@ -1543,7 +1569,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>79</v>
       </c>
@@ -1566,7 +1592,7 @@
         <v>0.44</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>83</v>
       </c>
@@ -1589,7 +1615,7 @@
         <v>0.88</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>171</v>
       </c>
@@ -1628,7 +1654,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J48"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
@@ -1637,13 +1663,13 @@
       <selection pane="bottomLeft" activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="3" width="24.25" customWidth="1"/>
-    <col min="10" max="10" width="53.5" customWidth="1"/>
+    <col min="2" max="3" width="24.21875" customWidth="1"/>
+    <col min="10" max="10" width="53.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1669,7 +1695,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>5</v>
       </c>
@@ -1695,7 +1721,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -1721,7 +1747,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1750,7 +1776,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1776,7 +1802,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>15</v>
       </c>
@@ -1802,7 +1828,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>18</v>
       </c>
@@ -1828,7 +1854,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>21</v>
       </c>
@@ -1854,7 +1880,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>22</v>
       </c>
@@ -1874,7 +1900,7 @@
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>24</v>
       </c>
@@ -1897,7 +1923,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>33</v>
       </c>
@@ -1920,7 +1946,7 @@
         <v>0.42899999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>34</v>
       </c>
@@ -1946,7 +1972,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>35</v>
       </c>
@@ -1969,7 +1995,7 @@
         <v>1.89</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>36</v>
       </c>
@@ -1992,7 +2018,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>37</v>
       </c>
@@ -2015,7 +2041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>38</v>
       </c>
@@ -2038,7 +2064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>39</v>
       </c>
@@ -2064,7 +2090,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>40</v>
       </c>
@@ -2090,7 +2116,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>43</v>
       </c>
@@ -2116,7 +2142,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>45</v>
       </c>
@@ -2139,7 +2165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>47</v>
       </c>
@@ -2162,7 +2188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>49</v>
       </c>
@@ -2185,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>51</v>
       </c>
@@ -2211,7 +2237,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>53</v>
       </c>
@@ -2234,7 +2260,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>54</v>
       </c>
@@ -2257,7 +2283,7 @@
         <v>0.38299999999999995</v>
       </c>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>57</v>
       </c>
@@ -2283,7 +2309,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>59</v>
       </c>
@@ -2309,7 +2335,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>61</v>
       </c>
@@ -2335,7 +2361,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>63</v>
       </c>
@@ -2358,7 +2384,7 @@
         <v>0.74</v>
       </c>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>65</v>
       </c>
@@ -2384,7 +2410,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>66</v>
       </c>
@@ -2407,7 +2433,7 @@
         <v>1.31</v>
       </c>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>69</v>
       </c>
@@ -2430,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>71</v>
       </c>
@@ -2456,7 +2482,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>73</v>
       </c>
@@ -2479,7 +2505,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>74</v>
       </c>
@@ -2502,7 +2528,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>103</v>
       </c>
@@ -2528,7 +2554,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>106</v>
       </c>
@@ -2554,7 +2580,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>108</v>
       </c>
@@ -2577,7 +2603,7 @@
         <v>1.0900000000000001</v>
       </c>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>112</v>
       </c>
@@ -2603,7 +2629,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>40</v>
       </c>
@@ -2629,7 +2655,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>114</v>
       </c>
@@ -2652,7 +2678,7 @@
         <v>1.35</v>
       </c>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>116</v>
       </c>
@@ -2675,7 +2701,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>118</v>
       </c>
@@ -2701,7 +2727,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>119</v>
       </c>
@@ -2727,7 +2753,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>123</v>
       </c>
@@ -2753,7 +2779,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>170</v>
       </c>
@@ -2779,7 +2805,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>102</v>
       </c>
@@ -2826,16 +2852,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>175</v>
       </c>
@@ -2846,7 +2872,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>176</v>
       </c>
@@ -2860,7 +2886,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>177</v>
       </c>
@@ -2874,7 +2900,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>178</v>
       </c>
@@ -2885,7 +2911,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>179</v>
       </c>
@@ -2899,7 +2925,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>180</v>
       </c>
@@ -2910,7 +2936,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>181</v>
       </c>
@@ -2924,18 +2950,21 @@
         <v>191</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>42</v>
       </c>
       <c r="B8">
         <v>10</v>
       </c>
-      <c r="C8">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" t="s">
+        <v>192</v>
+      </c>
+      <c r="E8" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>58</v>
       </c>
@@ -2946,7 +2975,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>70</v>
       </c>
@@ -2957,7 +2986,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>104</v>
       </c>
@@ -2968,7 +2997,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>41</v>
       </c>
@@ -2979,7 +3008,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>117</v>
       </c>
@@ -2993,7 +3022,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>122</v>
       </c>
@@ -3002,6 +3031,22 @@
       </c>
       <c r="C14">
         <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>194</v>
+      </c>
+      <c r="B15" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>197</v>
       </c>
     </row>
   </sheetData>
